--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4009723.200268609</v>
+        <v>4007471.1205574</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>120.7740905403541</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -710,10 +710,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>165.7060625238159</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>5.631578079487888</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -868,10 +868,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>215.7098141956742</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>62.05189784110691</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>87.28121759428751</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>11.03304066191151</v>
       </c>
       <c r="W7" t="n">
-        <v>116.6532574629644</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6171786498004</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>168.5177247035057</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>157.7822070347172</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>164.3975590884503</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,13 +1582,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>227.3641166063651</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>108.3764982651492</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832882</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>71.79687029690999</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2245,7 +2245,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>41.16673120696609</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>72.26558381699921</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>206.7582264966179</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>35.41770597126623</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>34.56584948763671</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>52.10645541514072</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>142.1343012721633</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>65.56423921895123</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,10 +3199,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7197280522375</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,10 +3670,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>176.5196562849262</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,10 +3907,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>176.1811323375803</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>20.9284728855285</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>80.33989744908999</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1213.898819086399</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1213.898819086399</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>950.1045973369969</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,10 +4325,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4337,43 +4337,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3047.935292001097</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2716.872404657527</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2364.103749387412</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1990.637991126332</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1600.498659150521</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4383,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>760.6631235951729</v>
+        <v>480.6870701241381</v>
       </c>
       <c r="C4" t="n">
-        <v>754.9746608886195</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8580214762837</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4516,22 +4516,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672847</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1391.09371846696</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1391.09371846696</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>1163.104167568943</v>
+        <v>662.3355349543779</v>
       </c>
       <c r="Y4" t="n">
-        <v>942.3115884254127</v>
+        <v>662.3355349543779</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1295.236214140707</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="C5" t="n">
-        <v>926.2736972002956</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D5" t="n">
-        <v>568.0079985935452</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E5" t="n">
-        <v>182.2197459953009</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4580,37 +4580,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180641</v>
+        <v>2336.581195395918</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180641</v>
+        <v>1963.115437134838</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204829</v>
+        <v>1572.976105159027</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
         <v>765.1517452158132</v>
@@ -4656,40 +4656,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672848</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672848</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1391.093718466961</v>
+        <v>1123.764238850934</v>
       </c>
       <c r="W7" t="n">
-        <v>1273.262145272047</v>
+        <v>834.3470688139736</v>
       </c>
       <c r="X7" t="n">
-        <v>1273.262145272047</v>
+        <v>606.3575179159562</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>385.5649387724261</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>563.5047572728761</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3155.385897666236</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3155.385897666236</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2824.323010322666</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2824.323010322666</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1767.918581386758</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1767.918581386758</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>968.8505838746323</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>679.4334138376717</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>679.4334138376717</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>458.6408346941415</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5048,43 +5048,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258107</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.82229605222</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,22 +5270,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5294,13 +5294,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273906</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2270.446169463826</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1981.370942808024</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.686454602137</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1437.269284565176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,25 +5528,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647277</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368208</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>481.447947124485</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>333.5348535420919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5750,13 +5750,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5832,19 +5832,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6075,19 +6075,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2252.221377756499</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6306,13 +6306,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>214.9229991561138</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>710.2486053718725</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101285</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="29">
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,16 +6540,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,31 +6686,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>943.510265746755</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7254,25 +7254,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>542.9134462654469</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.291933891999</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,40 +7421,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273912</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239598</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.212916266271</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446605</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F43" t="n">
-        <v>261.012762333092</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7640,28 +7640,28 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1336.167399417937</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1888.077129657224</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2311.700279152292</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2544.961939527175</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>114.9565346495158</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>59.15888173022594</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>109.0289520621391</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>73.62417772602126</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>213.9188905722449</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>79.42624789262624</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>184.0188038644581</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>110.0033420516647</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>101.6825818796766</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,10 +25087,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>45.7142345943317</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,10 +25558,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>32.15184655856257</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>144.5956654067404</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>205.8445769401542</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>616948.8851027386</v>
+        <v>616948.8851027385</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>616948.8851027386</v>
+        <v>616948.8851027385</v>
       </c>
     </row>
     <row r="10">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642833</v>
+      </c>
+      <c r="C2" t="n">
         <v>821041.7698642829</v>
-      </c>
-      <c r="C2" t="n">
-        <v>821041.7698642834</v>
       </c>
       <c r="D2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.599690006</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="G2" t="n">
         <v>807146.5996900059</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.599690006</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="J2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="K2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="L2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="L2" t="n">
-        <v>807146.5996900062</v>
-      </c>
       <c r="M2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.599690006</v>
       </c>
       <c r="N2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="P2" t="n">
         <v>807146.5996900061</v>
@@ -26366,19 +26366,19 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>3.906913468654238e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.462967702536844e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.080258466070518e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316948</v>
+        <v>91573.95495316944</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316933</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181811</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181811</v>
       </c>
       <c r="H4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181811</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
+        <v>12386.92018181815</v>
+      </c>
+      <c r="O4" t="n">
         <v>12386.92018181813</v>
-      </c>
-      <c r="O4" t="n">
-        <v>12386.92018181801</v>
       </c>
       <c r="P4" t="n">
         <v>12386.92018181813</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26506,7 +26506,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-707210.8713778724</v>
+        <v>-707210.8713778721</v>
       </c>
       <c r="C6" t="n">
         <v>621533.8743497203</v>
       </c>
       <c r="D6" t="n">
-        <v>621533.8743497207</v>
+        <v>621533.8743497203</v>
       </c>
       <c r="E6" t="n">
-        <v>368224.6878769256</v>
+        <v>368189.9499514899</v>
       </c>
       <c r="F6" t="n">
-        <v>693637.1496842811</v>
+        <v>693602.4117588451</v>
       </c>
       <c r="G6" t="n">
-        <v>693637.1496842807</v>
+        <v>693602.4117588447</v>
       </c>
       <c r="H6" t="n">
-        <v>693637.1496842812</v>
+        <v>693602.4117588453</v>
       </c>
       <c r="I6" t="n">
-        <v>693637.1496842811</v>
+        <v>693602.4117588454</v>
       </c>
       <c r="J6" t="n">
-        <v>476105.9472870035</v>
+        <v>476071.2093615677</v>
       </c>
       <c r="K6" t="n">
-        <v>693637.1496842809</v>
+        <v>693602.4117588454</v>
       </c>
       <c r="L6" t="n">
-        <v>693637.1496842811</v>
+        <v>693602.4117588452</v>
       </c>
       <c r="M6" t="n">
-        <v>608582.1217487693</v>
+        <v>608547.3838233334</v>
       </c>
       <c r="N6" t="n">
-        <v>693637.1496842809</v>
+        <v>693602.4117588451</v>
       </c>
       <c r="O6" t="n">
-        <v>693637.1496842805</v>
+        <v>693602.4117588456</v>
       </c>
       <c r="P6" t="n">
-        <v>693637.1496842813</v>
+        <v>693602.4117588451</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26826,10 +26826,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="P4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26960,20 +26960,20 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483754</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483759</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -26996,10 +26996,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>261.1562795319077</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>85.28910943508603</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>161.6152430191399</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,10 +27588,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>9.999841193362926</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>344.8241479006045</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>261.9597511231255</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>241.1046026619165</v>
       </c>
       <c r="W7" t="n">
-        <v>169.8697408736266</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>202.3131914224614</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>35.4002454361144</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>61.76674224145199</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>87.74008423537771</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-5.777618256731485e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28375,10 +28375,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-6.193604276308554e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-2.701199264265597e-12</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>469.5567819573411</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>363.5371514786837</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>162.5000833330452</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>151.9914336104081</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,22 +32552,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>400.8433522134843</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,7 +33026,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>260.1710714068256</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,7 +33035,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33260,19 +33260,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33497,13 +33497,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>506.5895320981981</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33518,7 +33518,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33676,7 +33676,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M36" t="n">
-        <v>516.654215558583</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,28 +33974,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>590.4022545401851</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>379.500278932156</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>200.3460366764704</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>153.8606640989137</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>327.4227480353227</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>220.9409070342392</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>23.94570355317105</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394658</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36200,22 +36200,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>266.868944799154</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>122.3296324324666</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,7 +36683,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36908,19 +36908,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37145,13 +37145,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>368.0351523183239</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37166,7 +37166,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M36" t="n">
-        <v>374.5201816365647</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>451.847874760311</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>248.1585668488227</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>57.74979223202591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>8.181160134949776</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
